--- a/data/Los Alamos.xlsx
+++ b/data/Los Alamos.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">

--- a/data/Los Alamos.xlsx
+++ b/data/Los Alamos.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F19" t="n">

--- a/data/Los Alamos.xlsx
+++ b/data/Los Alamos.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
